--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sele-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sele-Cd44.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="H2">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="I2">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="J2">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N2">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O2">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P2">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q2">
-        <v>294.75694712895</v>
+        <v>253.574805631744</v>
       </c>
       <c r="R2">
-        <v>1179.0277885158</v>
+        <v>1014.299222526976</v>
       </c>
       <c r="S2">
-        <v>0.02307391168877801</v>
+        <v>0.01711205429200179</v>
       </c>
       <c r="T2">
-        <v>0.01447033651834374</v>
+        <v>0.01048186901725701</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="H3">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="I3">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="J3">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P3">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q3">
-        <v>1739.38205898402</v>
+        <v>851.1398722598641</v>
       </c>
       <c r="R3">
-        <v>10436.29235390412</v>
+        <v>5106.839233559184</v>
       </c>
       <c r="S3">
-        <v>0.1361608213579584</v>
+        <v>0.05743769247071823</v>
       </c>
       <c r="T3">
-        <v>0.1280857532246251</v>
+        <v>0.05277458441207953</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="H4">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="I4">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="J4">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N4">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O4">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P4">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q4">
-        <v>3612.901602238454</v>
+        <v>2699.26611200947</v>
       </c>
       <c r="R4">
-        <v>21677.40961343072</v>
+        <v>16195.59667205682</v>
       </c>
       <c r="S4">
-        <v>0.2828220787407761</v>
+        <v>0.1821552742284121</v>
       </c>
       <c r="T4">
-        <v>0.2660492102117393</v>
+        <v>0.1673669063354805</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="H5">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="I5">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="J5">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N5">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O5">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P5">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q5">
-        <v>1330.46042541303</v>
+        <v>892.861405186576</v>
       </c>
       <c r="R5">
-        <v>5321.84170165212</v>
+        <v>3571.445620746304</v>
       </c>
       <c r="S5">
-        <v>0.1041499671523065</v>
+        <v>0.06025319748435221</v>
       </c>
       <c r="T5">
-        <v>0.06531554308588652</v>
+        <v>0.03690767415324848</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="H6">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="I6">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="J6">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N6">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O6">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P6">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q6">
-        <v>272.9569401647267</v>
+        <v>4954.417579260677</v>
       </c>
       <c r="R6">
-        <v>1637.74164098836</v>
+        <v>29726.50547556406</v>
       </c>
       <c r="S6">
-        <v>0.02136738215518511</v>
+        <v>0.3343402448454583</v>
       </c>
       <c r="T6">
-        <v>0.02010018161237637</v>
+        <v>0.3071966632877398</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="H7">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="I7">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="J7">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N7">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O7">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P7">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q7">
-        <v>2275.62003028562</v>
+        <v>1392.380581905627</v>
       </c>
       <c r="R7">
-        <v>13653.72018171372</v>
+        <v>8354.28349143376</v>
       </c>
       <c r="S7">
-        <v>0.1781381444185396</v>
+        <v>0.09396237947747986</v>
       </c>
       <c r="T7">
-        <v>0.1675735955345137</v>
+        <v>0.0863339962659907</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.33124</v>
       </c>
       <c r="I8">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="J8">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N8">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O8">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P8">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q8">
-        <v>2.1610089319</v>
+        <v>3.799204436906666</v>
       </c>
       <c r="R8">
-        <v>12.9660535914</v>
+        <v>22.79522662143999</v>
       </c>
       <c r="S8">
-        <v>0.000169166256263019</v>
+        <v>0.0002563826971247901</v>
       </c>
       <c r="T8">
-        <v>0.0001591337885416795</v>
+        <v>0.0002355681384329064</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.33124</v>
       </c>
       <c r="I9">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="J9">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P9">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q9">
         <v>12.75226997044</v>
@@ -1013,10 +1013,10 @@
         <v>114.77042973396</v>
       </c>
       <c r="S9">
-        <v>0.0009982623106781683</v>
+        <v>0.0008605647376393594</v>
       </c>
       <c r="T9">
-        <v>0.001408589989805036</v>
+        <v>0.001186049032482299</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.33124</v>
       </c>
       <c r="I10">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="J10">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N10">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O10">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P10">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q10">
-        <v>26.48796816686222</v>
+        <v>40.44196647844889</v>
       </c>
       <c r="R10">
-        <v>238.39171350176</v>
+        <v>363.97769830604</v>
       </c>
       <c r="S10">
-        <v>0.002073508510148747</v>
+        <v>0.002729155699559371</v>
       </c>
       <c r="T10">
-        <v>0.002925807475579128</v>
+        <v>0.00376138172455824</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.33124</v>
       </c>
       <c r="I11">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="J11">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N11">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O11">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P11">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q11">
-        <v>9.754263269659999</v>
+        <v>13.37736611362667</v>
       </c>
       <c r="R11">
-        <v>58.52557961796</v>
+        <v>80.26419668176</v>
       </c>
       <c r="S11">
-        <v>0.0007635749096517915</v>
+        <v>0.0009027482625888588</v>
       </c>
       <c r="T11">
-        <v>0.0007182908157483612</v>
+        <v>0.0008294581891698013</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.33124</v>
       </c>
       <c r="I12">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="J12">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N12">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O12">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P12">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q12">
-        <v>2.001182301097777</v>
+        <v>74.22995041846221</v>
       </c>
       <c r="R12">
-        <v>18.01064070988</v>
+        <v>668.0695537661599</v>
       </c>
       <c r="S12">
-        <v>0.0001566548444012587</v>
+        <v>0.005009278971894484</v>
       </c>
       <c r="T12">
-        <v>0.0002210465559179247</v>
+        <v>0.00690389719470379</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.33124</v>
       </c>
       <c r="I13">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="J13">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N13">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O13">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P13">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q13">
-        <v>16.68369569897333</v>
+        <v>20.86145140271111</v>
       </c>
       <c r="R13">
-        <v>150.15326129076</v>
+        <v>187.7530626244</v>
       </c>
       <c r="S13">
-        <v>0.001306018823136152</v>
+        <v>0.001407798728756909</v>
       </c>
       <c r="T13">
-        <v>0.001842847336905644</v>
+        <v>0.00194025881742749</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="H14">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="I14">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="J14">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N14">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O14">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P14">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q14">
-        <v>1.0681414906875</v>
+        <v>2.919356678304</v>
       </c>
       <c r="R14">
-        <v>6.408848944125</v>
+        <v>17.516140069824</v>
       </c>
       <c r="S14">
-        <v>8.361534025680109E-05</v>
+        <v>0.0001970077029237885</v>
       </c>
       <c r="T14">
-        <v>7.865650141585099E-05</v>
+        <v>0.0001810135331094953</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="H15">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="I15">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="J15">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P15">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q15">
-        <v>6.303180174225</v>
+        <v>9.799005323349</v>
       </c>
       <c r="R15">
-        <v>56.728621568025</v>
+        <v>88.19104791014101</v>
       </c>
       <c r="S15">
-        <v>0.0004934201691093562</v>
+        <v>0.0006612688144747269</v>
       </c>
       <c r="T15">
-        <v>0.0006962365538003549</v>
+        <v>0.0009113750579298606</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="H16">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="I16">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="J16">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N16">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O16">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P16">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q16">
-        <v>13.09244833993334</v>
+        <v>31.076117877651</v>
       </c>
       <c r="R16">
-        <v>117.8320350594</v>
+        <v>279.685060898859</v>
       </c>
       <c r="S16">
-        <v>0.001024891863374302</v>
+        <v>0.002097117712393271</v>
       </c>
       <c r="T16">
-        <v>0.001446165405564524</v>
+        <v>0.002890293228384507</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="H17">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="I17">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="J17">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N17">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O17">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P17">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q17">
-        <v>4.821328202587501</v>
+        <v>10.279337095566</v>
       </c>
       <c r="R17">
-        <v>28.927969215525</v>
+        <v>61.676022573396</v>
       </c>
       <c r="S17">
-        <v>0.0003774190981848194</v>
+        <v>0.0006936831678797237</v>
       </c>
       <c r="T17">
-        <v>0.0003550361182477976</v>
+        <v>0.0006373661497138037</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="H18">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="I18">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="J18">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N18">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O18">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P18">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q18">
-        <v>0.9891425318416668</v>
+        <v>57.039231524154</v>
       </c>
       <c r="R18">
-        <v>8.902282786575</v>
+        <v>513.353083717386</v>
       </c>
       <c r="S18">
-        <v>7.743121120515663E-05</v>
+        <v>0.003849193235833025</v>
       </c>
       <c r="T18">
-        <v>0.0001092586866551812</v>
+        <v>0.005305041809777688</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="H19">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="I19">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="J19">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N19">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O19">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P19">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q19">
-        <v>8.246401637225</v>
+        <v>16.03020276561</v>
       </c>
       <c r="R19">
-        <v>74.21761473502499</v>
+        <v>144.27182489049</v>
       </c>
       <c r="S19">
-        <v>0.0006455377726662436</v>
+        <v>0.001081770325539691</v>
       </c>
       <c r="T19">
-        <v>0.0009108808725844602</v>
+        <v>0.001490919383350445</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="H20">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="I20">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="J20">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N20">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O20">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P20">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q20">
-        <v>97.28288882513502</v>
+        <v>79.95637008288</v>
       </c>
       <c r="R20">
-        <v>583.6973329508101</v>
+        <v>479.73822049728</v>
       </c>
       <c r="S20">
-        <v>0.007615416048526133</v>
+        <v>0.005395716433424521</v>
       </c>
       <c r="T20">
-        <v>0.007163780968462528</v>
+        <v>0.004957662470938857</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="H21">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="I21">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="J21">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>346.487229</v>
       </c>
       <c r="O21">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P21">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q21">
-        <v>574.073361516226</v>
+        <v>268.3786129665301</v>
       </c>
       <c r="R21">
-        <v>5166.660253646034</v>
+        <v>2415.40751669877</v>
       </c>
       <c r="S21">
-        <v>0.04493912077570282</v>
+        <v>0.01811106345700962</v>
       </c>
       <c r="T21">
-        <v>0.06341098426553958</v>
+        <v>0.0249610614412762</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="H22">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="I22">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="J22">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N22">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O22">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P22">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q22">
-        <v>1192.418052670879</v>
+        <v>851.1236740034701</v>
       </c>
       <c r="R22">
-        <v>10731.76247403791</v>
+        <v>7660.113066031231</v>
       </c>
       <c r="S22">
-        <v>0.0933438519818697</v>
+        <v>0.05743659935958616</v>
       </c>
       <c r="T22">
-        <v>0.1317120902042086</v>
+        <v>0.07916037006858979</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="H23">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="I23">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="J23">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N23">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O23">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P23">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q23">
-        <v>439.1110537424391</v>
+        <v>281.53410891102</v>
       </c>
       <c r="R23">
-        <v>2634.666322454634</v>
+        <v>1689.20465346612</v>
       </c>
       <c r="S23">
-        <v>0.03437411662153887</v>
+        <v>0.01899883919750354</v>
       </c>
       <c r="T23">
-        <v>0.03233554685548006</v>
+        <v>0.01745640884635695</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="H24">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="I24">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="J24">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N24">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O24">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P24">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q24">
-        <v>90.08791793625579</v>
+        <v>1562.21058525738</v>
       </c>
       <c r="R24">
-        <v>810.7912614263021</v>
+        <v>14059.89526731642</v>
       </c>
       <c r="S24">
-        <v>0.007052185480051358</v>
+        <v>0.1054230615847808</v>
       </c>
       <c r="T24">
-        <v>0.00995092949737866</v>
+        <v>0.1452963556663309</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="H25">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="I25">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="J25">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N25">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O25">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P25">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q25">
-        <v>751.0557175016394</v>
+        <v>439.0408456617</v>
       </c>
       <c r="R25">
-        <v>6759.501457514754</v>
+        <v>3951.3676109553</v>
       </c>
       <c r="S25">
-        <v>0.05879350246969146</v>
+        <v>0.02962790711266498</v>
       </c>
       <c r="T25">
-        <v>0.0829600979206799</v>
+        <v>0.04083382577567111</v>
       </c>
     </row>
   </sheetData>
